--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1263410.823284014</v>
+        <v>1261523.241767612</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>300.1709771890797</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>88.37396379153448</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.35002255071607</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>193.5914140808536</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>207.2096032800582</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>126.3298627762798</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>4.252601227922806</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>92.39306372366477</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>98.63122914173739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>104.4482877815458</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>229.5889480231529</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710065</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784671</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>91.09720239620609</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896905</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>69.2714293205093</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056513</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>137.1438937478111</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>169.7438101404418</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>146.278729911946</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>139.1537278750033</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>169.8277167599795</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>244.8574085522614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056509</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2950,22 +2950,22 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>25.0819953432089</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>45.40012322653607</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>91.23070601801207</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>90.21779139437415</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789621</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898711</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857163</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692845</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329052</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373686</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378954</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415208</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4198,7 +4198,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y46" t="n">
         <v>150.4527632224541</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1077.074462393506</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C2" t="n">
-        <v>1077.074462393506</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>1077.074462393506</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>691.2862097952618</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>684.3407090460584</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4358,22 +4358,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1837.140060718708</v>
+        <v>1628.245633506517</v>
       </c>
       <c r="X2" t="n">
-        <v>1463.674302457628</v>
+        <v>1254.779875245437</v>
       </c>
       <c r="Y2" t="n">
-        <v>1463.674302457628</v>
+        <v>864.6405432696254</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W4" t="n">
-        <v>450.8687156462887</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1231.905553626649</v>
+        <v>1185.963190797449</v>
       </c>
       <c r="C5" t="n">
-        <v>1231.905553626649</v>
+        <v>1185.963190797449</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>827.6974921906988</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>827.6974921906988</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>416.7115874010912</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4562,16 +4562,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,7 +4592,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
         <v>2302.336936304455</v>
@@ -4601,16 +4601,16 @@
         <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>1618.50539369077</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>1618.50539369077</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1618.50539369077</v>
+        <v>1185.963190797449</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,19 +4650,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.535689181137</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>571.1061430638139</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>281.9325327183818</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>496.5252400791543</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.535689181137</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.535689181137</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859356</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1210.087414675782</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.9927747426009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9927747426009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>351.9927747426009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>351.9927747426009</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5106,37 +5106,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>412.607977814708</v>
+        <v>326.2492756170072</v>
       </c>
       <c r="L12" t="n">
-        <v>659.373105721172</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M12" t="n">
-        <v>1427.741252113633</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1757.603879777666</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2037.143944996363</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>484.0375086983732</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C13" t="n">
-        <v>484.0375086983732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655736</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>665.685973528613</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>665.685973528613</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y13" t="n">
-        <v>665.685973528613</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="14">
@@ -5255,28 +5255,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5297,7 +5297,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>177.1795914149474</v>
       </c>
       <c r="K15" t="n">
-        <v>498.9056400965599</v>
+        <v>326.2492756170072</v>
       </c>
       <c r="L15" t="n">
-        <v>745.6707680030239</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>484.037508698373</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>315.1013257704661</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>315.1013257704661</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>167.188232188073</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655735</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W16" t="n">
-        <v>665.685973528613</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286127</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>665.6859735286127</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,28 +5498,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5592,19 +5592,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2032.925401907737</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>665.5728295347031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>665.5728295347031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>515.4561901223674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.497233179936</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.21084526296</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>1075.21084526296</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>847.2212943649429</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>847.2212943649429</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977053</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,31 +5926,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>862.1113288466634</v>
       </c>
       <c r="V22" t="n">
-        <v>755.183133481126</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W22" t="n">
-        <v>465.7659634441654</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X22" t="n">
-        <v>237.7764125461478</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,10 +5990,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2338.69837048303</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881927</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1327.373122315499</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U25" t="n">
-        <v>1038.244483529058</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>783.5599953231707</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>494.14282528621</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>266.1532743881927</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>266.1532743881927</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6279,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6339,7 +6339,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>245.1301850426791</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>245.1301850426791</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>245.1301850426791</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471188</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
         <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473454</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687012</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V28" t="n">
-        <v>762.5369059776572</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="W28" t="n">
-        <v>473.1197359406964</v>
+        <v>241.9805482336708</v>
       </c>
       <c r="X28" t="n">
-        <v>245.1301850426791</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="Y28" t="n">
-        <v>245.1301850426791</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6452,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6546,22 +6546,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.8466681110219</v>
+        <v>439.5324299542183</v>
       </c>
       <c r="C31" t="n">
-        <v>469.5113192794986</v>
+        <v>326.3571123076822</v>
       </c>
       <c r="D31" t="n">
-        <v>375.1555451485336</v>
+        <v>280.4984019778477</v>
       </c>
       <c r="E31" t="n">
-        <v>283.0033168475113</v>
+        <v>188.3461736768254</v>
       </c>
       <c r="F31" t="n">
-        <v>191.8742346309718</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818803</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894287</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386967</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220502</v>
+        <v>730.4517433652466</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598909</v>
+        <v>565.4200295030872</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6713,34 +6713,34 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,22 +6777,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045196</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010305</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6914,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7111,13 +7111,13 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,19 +7330,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7412,25 +7412,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7454,7 +7454,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108336</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>223.155231313709</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,10 +7819,10 @@
         <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384656</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516231</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>38.86002301949898</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>87.16935584025424</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>38.86002301949895</v>
       </c>
       <c r="K15" t="n">
-        <v>87.16935584025435</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,22 +9240,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>19.14409596997086</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627475</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>213.2603911806632</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>50.62661940943661</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>213.260391180663</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,16 +11148,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>283.6093329825497</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127833</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>57.51827062200627</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>76.14961870242195</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23701,10 +23701,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338582</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>9.290068898758014</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338618</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>75.26883114644325</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>79.43092547709148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>51.71984429840978</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229313</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>7.280234771566569</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338633</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>86.96156912686185</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>48.01209316311919</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897903</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571491</v>
+        <v>55.2159888357149</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-3.004263632321431e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>959856.5572667964</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>959856.5572667964</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>959856.5572667966</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>959856.5572667964</v>
+        <v>959856.5572667966</v>
       </c>
     </row>
     <row r="11">
@@ -26314,19 +26314,19 @@
         <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253561</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="F2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="G2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114796</v>
       </c>
       <c r="H2" t="n">
         <v>430131.9657114797</v>
@@ -26338,7 +26338,7 @@
         <v>430131.9657114797</v>
       </c>
       <c r="K2" t="n">
-        <v>447504.3510797971</v>
+        <v>447504.3510797972</v>
       </c>
       <c r="L2" t="n">
         <v>451572.9734253563</v>
@@ -26347,10 +26347,10 @@
         <v>451572.9734253563</v>
       </c>
       <c r="N2" t="n">
-        <v>451572.9734253563</v>
+        <v>451572.9734253562</v>
       </c>
       <c r="O2" t="n">
-        <v>451572.9734253563</v>
+        <v>451572.9734253562</v>
       </c>
       <c r="P2" t="n">
         <v>451572.9734253563</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284574</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.6075868708</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
+        <v>22174.60758687073</v>
+      </c>
+      <c r="H4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687066</v>
       </c>
       <c r="K4" t="n">
         <v>40339.23010106727</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
+        <v>44593.39482819123</v>
+      </c>
+      <c r="P4" t="n">
         <v>44593.39482819122</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,31 +26485,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-386886.8516391222</v>
+        <v>-386886.8516391224</v>
       </c>
       <c r="C6" t="n">
-        <v>203081.0275754222</v>
+        <v>203081.0275754221</v>
       </c>
       <c r="D6" t="n">
-        <v>203081.0275754222</v>
+        <v>203081.027575422</v>
       </c>
       <c r="E6" t="n">
-        <v>-209190.0043010036</v>
+        <v>-209287.4634269759</v>
       </c>
       <c r="F6" t="n">
-        <v>315970.0321758924</v>
+        <v>315872.5730499202</v>
       </c>
       <c r="G6" t="n">
-        <v>315970.0321758924</v>
+        <v>315872.5730499201</v>
       </c>
       <c r="H6" t="n">
-        <v>315970.0321758924</v>
+        <v>315872.5730499201</v>
       </c>
       <c r="I6" t="n">
-        <v>315970.0321758921</v>
+        <v>315872.5730499201</v>
       </c>
       <c r="J6" t="n">
-        <v>139546.8129832996</v>
+        <v>139449.3538573271</v>
       </c>
       <c r="K6" t="n">
-        <v>266374.3071456613</v>
+        <v>266355.8134077271</v>
       </c>
       <c r="L6" t="n">
         <v>298921.5659762729</v>
@@ -26555,13 +26555,13 @@
         <v>174463.4575433026</v>
       </c>
       <c r="N6" t="n">
-        <v>309264.4727771397</v>
+        <v>309264.4727771396</v>
       </c>
       <c r="O6" t="n">
-        <v>309264.4727771397</v>
+        <v>309264.4727771396</v>
       </c>
       <c r="P6" t="n">
-        <v>265101.867474294</v>
+        <v>265101.8674742939</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,10 +26753,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26935,7 +26935,7 @@
         <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108357</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>113.6131928317153</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>260.8670049258785</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>264.1729757858749</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179802</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>161.0916275398293</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>206.5745667407367</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,16 +27825,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>98.70524268180444</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>282.2703971086682</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>290.3407779398158</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>287.6067095143162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>44.16718523666655</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>22.54869530067512</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.003878819152886e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.927418225022848e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964072</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31522,7 +31522,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,7 +31534,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279169</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>189.4354616074382</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>294.2627707717789</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>80.77020197440561</v>
       </c>
       <c r="K15" t="n">
-        <v>237.7447944281936</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35744,7 +35744,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>301.507798211079</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>639.309310412009</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>287.7526615081896</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951493</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109123</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>462.5180961366875</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36762,7 +36762,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206028</v>
@@ -36847,7 +36847,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
@@ -36914,7 +36914,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412262</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37005,10 +37005,10 @@
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043185</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37163,7 +37163,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>299.8843243654609</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37397,13 +37397,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>420.3538061121876</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37868,16 +37868,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>490.7027479140744</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>127.210242276185</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520624</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
